--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Proof.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Proof.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denden/local/his_vb/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\works\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6D7273-2E25-0C47-AB8D-123B5452F9D0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D2B98FD0-BCC8-470F-9754-FF40EF377105}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39780" yWindow="440" windowWidth="36880" windowHeight="18660" xr2:uid="{A4AD6CC6-DB1C-DA47-BA95-356941279709}"/>
+    <workbookView xWindow="39780" yWindow="435" windowWidth="36885" windowHeight="18660" xr2:uid="{A4AD6CC6-DB1C-DA47-BA95-356941279709}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -241,7 +240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -474,7 +473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -490,46 +489,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -538,21 +546,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -563,6 +562,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -884,136 +889,136 @@
   </sheetPr>
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="17" width="11.42578125" customWidth="1"/>
-    <col min="18" max="18" width="28.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="17" width="11.44140625" customWidth="1"/>
+    <col min="18" max="18" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="H1" s="8" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="H1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="M1" s="8" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="M1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
     </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="H2" s="8" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="H2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="M2" s="8" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="M2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="H3" s="8" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="H3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="M3" s="8" t="s">
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="M3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="16"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" s="14"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="26"/>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="17"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" s="15"/>
       <c r="B5" s="27"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="29"/>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
     </row>
-    <row r="9" spans="1:18" s="1" customFormat="1" ht="40">
+    <row r="9" spans="1:18" s="1" customFormat="1" ht="39" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1089,7 +1094,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1109,50 +1114,56 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
     </row>
-    <row r="12" spans="1:18" ht="21" thickBot="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+    <row r="12" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" ht="21" thickBot="1">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="N1:P1"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="N3:P3"/>
@@ -1162,15 +1173,9 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B7:F7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="28" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="29" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Proof.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Proof.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\works\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D2B98FD0-BCC8-470F-9754-FF40EF377105}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{71F395CD-A91E-4960-B781-93791864B843}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39780" yWindow="435" windowWidth="36885" windowHeight="18660" xr2:uid="{A4AD6CC6-DB1C-DA47-BA95-356941279709}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -77,30 +77,207 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>間接比率</t>
-    <rPh sb="0" eb="2">
-      <t>カンセツヒリツ</t>
+    <t>粗利額</t>
+    <rPh sb="0" eb="2">
+      <t>アラリガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>粗利率</t>
+    <rPh sb="0" eb="2">
+      <t>アラリリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リードタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得意先名称</t>
+    <rPh sb="0" eb="2">
+      <t>トクイサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住所</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積番号</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積有効期限</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>支払条件</t>
+    <rPh sb="0" eb="2">
+      <t>シハライジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電話番号</t>
+    <rPh sb="0" eb="2">
+      <t>デンワバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FAX番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得意先担当者名</t>
+    <rPh sb="0" eb="2">
+      <t>トクイサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>得意先担当者役職</t>
+    <rPh sb="0" eb="2">
+      <t>トクイサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業担当者</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力担当者</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョクタントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積日（登録日）</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕入区分</t>
+    <rPh sb="0" eb="2">
+      <t>シイレクブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕入原価</t>
+    <rPh sb="0" eb="2">
+      <t>シイレ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関税率</t>
+    <rPh sb="0" eb="2">
+      <t>カンゼイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>関税額</t>
+    <rPh sb="0" eb="2">
+      <t>カンゼイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前払法人税率</t>
+    <rPh sb="0" eb="5">
+      <t>マエバライホウジンゼイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前払法人税額</t>
+    <rPh sb="0" eb="2">
+      <t>マエバライ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ホウジンゼイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輸送費率</t>
+    <rPh sb="0" eb="3">
+      <t>ユソウヒ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>輸送費額</t>
+    <rPh sb="0" eb="3">
+      <t>ユソウヒ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>仕入金額</t>
     <rPh sb="0" eb="2">
-      <t>シイレキンガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仕入金額
-（間接費無）</t>
-    <rPh sb="0" eb="2">
-      <t>シイレキンガク</t>
+      <t>シイレ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>売単価</t>
-    <rPh sb="0" eb="2">
+    <rPh sb="0" eb="3">
       <t>ウリタンカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -110,128 +287,38 @@
     <rPh sb="0" eb="2">
       <t>ウリアゲ</t>
     </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕入金額</t>
+    <rPh sb="0" eb="2">
+      <t>シイレ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積金額</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>粗利額</t>
     <rPh sb="0" eb="2">
-      <t>アラリガク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>粗利率</t>
-    <rPh sb="0" eb="2">
-      <t>アラリリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リードタイム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>得意先名称</t>
-    <rPh sb="0" eb="2">
-      <t>トクイサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>住所</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>見積番号</t>
-    <rPh sb="0" eb="2">
-      <t>ミツモリバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>見積有効期限</t>
-    <rPh sb="0" eb="2">
-      <t>ミツモリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>支払条件</t>
-    <rPh sb="0" eb="2">
-      <t>シハライジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>電話番号</t>
-    <rPh sb="0" eb="2">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FAX番号</t>
-    <rPh sb="0" eb="2">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>得意先担当者名</t>
-    <rPh sb="0" eb="2">
-      <t>トクイサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>得意先担当者役職</t>
-    <rPh sb="0" eb="2">
-      <t>トクイサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>営業担当者</t>
-    <rPh sb="0" eb="2">
-      <t>エイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力担当者</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョクタントウシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合計</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>見積日（登録日）</t>
-    <rPh sb="0" eb="2">
-      <t>ミツモリビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仕入区分</t>
-    <rPh sb="0" eb="2">
-      <t>シイレクブン</t>
+      <t>アラリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -240,7 +327,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -256,17 +343,8 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,14 +357,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -313,19 +385,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -415,65 +474,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -489,37 +496,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -531,13 +520,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,27 +558,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -887,10 +879,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:K3"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -900,130 +892,145 @@
     <col min="3" max="5" width="17.109375" customWidth="1"/>
     <col min="6" max="7" width="11.44140625" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="17" width="11.44140625" customWidth="1"/>
-    <col min="18" max="18" width="28.5546875" customWidth="1"/>
+    <col min="9" max="22" width="11.44140625" customWidth="1"/>
+    <col min="23" max="23" width="28.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="H1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="M1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="M2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
+      <c r="H3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="M3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="H1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="M1" s="6" t="s">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A5" s="9"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="H2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="M2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="21"/>
-      <c r="H3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="M3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
-      <c r="H4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A5" s="15"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-      <c r="H5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="9" spans="1:18" s="1" customFormat="1" ht="39" x14ac:dyDescent="0.4">
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1</v>
@@ -1047,34 +1054,49 @@
         <v>7</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="U9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="V9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="W9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1089,12 +1111,17 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1109,73 +1136,79 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="1:18" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="V14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" s="10"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="V15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="10"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="V16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W16" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="N2:U2"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="29" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="24" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Proof.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Proof.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\VBOXSVR\works\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\OneDrive - レビガータ株式会社\笠原恵利共有\vb\Template\ZENBI\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{71F395CD-A91E-4960-B781-93791864B843}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="10_ncr:100000_{71F395CD-A91E-4960-B781-93791864B843}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F4C86025-D52A-42E4-A9C5-61A3640E955D}"/>
   <bookViews>
-    <workbookView xWindow="39780" yWindow="435" windowWidth="36885" windowHeight="18660" xr2:uid="{A4AD6CC6-DB1C-DA47-BA95-356941279709}"/>
+    <workbookView xWindow="4305" yWindow="540" windowWidth="24075" windowHeight="13050" xr2:uid="{A4AD6CC6-DB1C-DA47-BA95-356941279709}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -514,36 +514,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -560,6 +542,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -900,130 +900,130 @@
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="H1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
       <c r="M1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
       <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
       <c r="M2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
       <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
       <c r="M3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
       <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="9"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
       <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
@@ -1191,6 +1191,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
     <mergeCell ref="N1:U1"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="N3:U3"/>
@@ -1200,15 +1206,9 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="24" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Proof.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Proof.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\OneDrive - レビガータ株式会社\笠原恵利共有\vb\Template\ZENBI\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="10_ncr:100000_{71F395CD-A91E-4960-B781-93791864B843}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F4C86025-D52A-42E4-A9C5-61A3640E955D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9542E1-4001-4309-93FC-184A193FCC88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="540" windowWidth="24075" windowHeight="13050" xr2:uid="{A4AD6CC6-DB1C-DA47-BA95-356941279709}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A4AD6CC6-DB1C-DA47-BA95-356941279709}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -319,6 +319,16 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積単価</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -327,6 +337,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -480,7 +493,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -511,7 +524,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -520,23 +533,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -544,22 +548,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -879,10 +886,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10:Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -893,18 +900,19 @@
     <col min="6" max="7" width="11.44140625" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
     <col min="9" max="22" width="11.44140625" customWidth="1"/>
-    <col min="23" max="23" width="28.5546875" customWidth="1"/>
+    <col min="23" max="23" width="11.33203125" customWidth="1"/>
+    <col min="25" max="25" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="H1" s="5" t="s">
         <v>23</v>
       </c>
@@ -923,21 +931,21 @@
       <c r="T1" s="11"/>
       <c r="U1" s="11"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
       <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
       <c r="M2" s="5" t="s">
         <v>21</v>
       </c>
@@ -950,21 +958,21 @@
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
       <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
       <c r="M3" s="5" t="s">
         <v>22</v>
       </c>
@@ -977,13 +985,13 @@
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
       <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
@@ -991,13 +999,13 @@
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A5" s="9"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
       <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1005,27 +1013,27 @@
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -1084,24 +1092,30 @@
         <v>34</v>
       </c>
       <c r="T9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="W9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="X9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="W9" s="2" t="s">
+      <c r="Y9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1111,22 +1125,24 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1136,58 +1152,68 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A12" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A12" s="4"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="V14" s="2" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="X14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="V15" s="2" t="s">
+      <c r="Y14" s="24"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="X15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y15" s="24"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="X16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="W15" s="10"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="V16" s="2" t="s">
+      <c r="Y16" s="24"/>
+    </row>
+    <row r="17" spans="24:25" x14ac:dyDescent="0.4">
+      <c r="X17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="W16" s="10"/>
+      <c r="Y17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1209,6 +1235,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="34" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Proof.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Proof.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9542E1-4001-4309-93FC-184A193FCC88}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3F1F74-23FC-46D8-8D6E-54E55A066637}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A4AD6CC6-DB1C-DA47-BA95-356941279709}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4AD6CC6-DB1C-DA47-BA95-356941279709}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -182,13 +182,6 @@
     <t>見積日（登録日）</t>
     <rPh sb="0" eb="2">
       <t>ミツモリビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仕入区分</t>
-    <rPh sb="0" eb="2">
-      <t>シイレクブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -371,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -487,13 +480,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -527,6 +544,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -566,8 +586,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,355 +912,347 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10:Y12"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="7" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" customWidth="1"/>
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
     <col min="9" max="22" width="11.44140625" customWidth="1"/>
     <col min="23" max="23" width="11.33203125" customWidth="1"/>
     <col min="25" max="25" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="H1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
       <c r="M1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="N1" s="25"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="27"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
       <c r="M2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="N2" s="25"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="27"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
       <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
       <c r="M3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="N3" s="25"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="27"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
       <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="9"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
       <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="H6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="9" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O9" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V9" s="2" t="s">
+      <c r="P10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="W9" s="2" t="s">
+      <c r="S10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="X9" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Y9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="E11" s="11"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="T11" s="10"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="X14" s="2" t="s">
+      <c r="T12" s="10"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A13" s="4"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="10"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T15" s="11"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="S16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" s="11"/>
+    </row>
+    <row r="17" spans="19:20" x14ac:dyDescent="0.4">
+      <c r="S17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Y14" s="24"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="X15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y15" s="24"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="X16" s="2" t="s">
+      <c r="T17" s="11"/>
+    </row>
+    <row r="18" spans="19:20" x14ac:dyDescent="0.4">
+      <c r="S18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="Y16" s="24"/>
-    </row>
-    <row r="17" spans="24:25" x14ac:dyDescent="0.4">
-      <c r="X17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y17" s="24"/>
+      <c r="T18" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="N1:T1"/>
+    <mergeCell ref="N2:T2"/>
+    <mergeCell ref="N3:T3"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I3:K3"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="N2:U2"/>
-    <mergeCell ref="N3:U3"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="34" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Proof.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Proof.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.tateiwa\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3F1F74-23FC-46D8-8D6E-54E55A066637}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6B3388-DD89-4789-BBA6-BDFFD1EF8789}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4AD6CC6-DB1C-DA47-BA95-356941279709}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{A4AD6CC6-DB1C-DA47-BA95-356941279709}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -330,8 +330,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -510,7 +513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,7 +550,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -914,11 +923,11 @@
   </sheetPr>
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -932,153 +941,153 @@
     <col min="25" max="25" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.8">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
       <c r="H1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
       <c r="M1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="27"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="N1" s="27"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="29"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.8">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
       <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
       <c r="M2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="27"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="N2" s="27"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="29"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.8">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
       <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
       <c r="M3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="27"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="29"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.8">
       <c r="A4" s="8"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
       <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.8">
       <c r="A5" s="9"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
       <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.8">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
       <c r="H6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.8">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="H7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.8">
       <c r="H8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1140,7 +1149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.8">
       <c r="A11" s="4"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -1148,21 +1157,21 @@
       <c r="E11" s="11"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="4"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="12"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.8">
       <c r="A12" s="4"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1170,21 +1179,21 @@
       <c r="E12" s="11"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="4"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="12"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.8">
       <c r="A13" s="4"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1192,48 +1201,46 @@
       <c r="E13" s="11"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="4"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="12"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.8">
       <c r="S15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T15" s="11"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T15" s="13"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.8">
       <c r="S16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T16" s="11"/>
-    </row>
-    <row r="17" spans="19:20" x14ac:dyDescent="0.4">
+      <c r="T16" s="13"/>
+    </row>
+    <row r="17" spans="19:20" x14ac:dyDescent="0.8">
       <c r="S17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T17" s="11"/>
-    </row>
-    <row r="18" spans="19:20" x14ac:dyDescent="0.4">
+      <c r="T17" s="13"/>
+    </row>
+    <row r="18" spans="19:20" x14ac:dyDescent="0.8">
       <c r="S18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T18" s="11"/>
+      <c r="T18" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
     <mergeCell ref="N1:T1"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="N3:T3"/>
@@ -1250,6 +1257,8 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Proof.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Proof.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t.tateiwa\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6B3388-DD89-4789-BBA6-BDFFD1EF8789}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98814942-AC56-423C-B02C-911AE4D5F9A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{A4AD6CC6-DB1C-DA47-BA95-356941279709}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A4AD6CC6-DB1C-DA47-BA95-356941279709}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -330,8 +330,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+  <numFmts count="3">
     <numFmt numFmtId="177" formatCode="0.0"/>
     <numFmt numFmtId="178" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
@@ -513,7 +512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -547,14 +546,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -594,15 +599,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,11 +919,11 @@
   </sheetPr>
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -941,153 +937,153 @@
     <col min="25" max="25" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
       <c r="H1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
       <c r="M1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="29"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.8">
+      <c r="N1" s="13"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="15"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
       <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
       <c r="M2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="29"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.8">
+      <c r="N2" s="13"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="15"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
       <c r="H3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
       <c r="M3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="29"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.8">
+      <c r="N3" s="13"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="15"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="8"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
       <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.8">
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="9"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
       <c r="H5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.8">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
       <c r="H6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.8">
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
       <c r="H7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.8">
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="H8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.8">
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -1149,98 +1145,100 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.8">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="11"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.8">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-      <c r="E12" s="11"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="11"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="11"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.8">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="S15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="T15" s="13"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.8">
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="S16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="T16" s="13"/>
-    </row>
-    <row r="17" spans="19:20" x14ac:dyDescent="0.8">
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T17" s="13"/>
-    </row>
-    <row r="18" spans="19:20" x14ac:dyDescent="0.8">
+      <c r="T17" s="12"/>
+    </row>
+    <row r="18" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T18" s="13"/>
+      <c r="T18" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I7:K7"/>
     <mergeCell ref="N1:T1"/>
     <mergeCell ref="N2:T2"/>
     <mergeCell ref="N3:T3"/>
@@ -1257,8 +1255,6 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Proof.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Proof.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98814942-AC56-423C-B02C-911AE4D5F9A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0195E798-618D-46B6-B588-2E0D6ADE1197}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A4AD6CC6-DB1C-DA47-BA95-356941279709}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -322,6 +322,16 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕入区分</t>
+    <rPh sb="0" eb="2">
+      <t>シイレ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -331,9 +341,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="177" formatCode="0.0"/>
-    <numFmt numFmtId="178" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -512,12 +522,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -546,11 +553,68 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -560,45 +624,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,347 +942,369 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" customWidth="1"/>
-    <col min="7" max="7" width="26.21875" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="22" width="11.44140625" customWidth="1"/>
-    <col min="23" max="23" width="11.33203125" customWidth="1"/>
-    <col min="25" max="25" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="26.21875" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="13" width="11.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" customWidth="1"/>
+    <col min="17" max="17" width="11.44140625" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" customWidth="1"/>
+    <col min="20" max="20" width="11.44140625" customWidth="1"/>
+    <col min="21" max="21" width="14.77734375" customWidth="1"/>
+    <col min="22" max="23" width="11.44140625" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" customWidth="1"/>
+    <col min="26" max="26" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="H1" s="5" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="I1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="M1" s="5" t="s">
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="N1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="15"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="33"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
-      <c r="H2" s="5" t="s">
+      <c r="G2" s="18"/>
+      <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="M2" s="5" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="N2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="15"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A3" s="7" t="s">
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="33"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="H3" s="5" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="24"/>
+      <c r="I3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="M3" s="5" t="s">
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="N3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="15"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A4" s="8"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="H4" s="5" t="s">
+      <c r="O3" s="31"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="33"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A4" s="7"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A5" s="9"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
-      <c r="H5" s="5" t="s">
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="30"/>
+      <c r="I5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A6" s="6" t="s">
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="18"/>
+      <c r="I6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="18"/>
+      <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="H8" s="2" t="s">
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-    </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="10" spans="1:21" s="15" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="R10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="S10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S10" s="2" t="s">
+      <c r="T10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="T10" s="2" t="s">
+      <c r="U10" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="10"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
+      <c r="U11" s="9"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="10"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
+      <c r="U12" s="9"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="10"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="S15" s="2" t="s">
+      <c r="U13" s="9"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="T15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="S16" s="2" t="s">
+      <c r="U15" s="11"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="T16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="19:20" x14ac:dyDescent="0.4">
-      <c r="S17" s="2" t="s">
+      <c r="U16" s="11"/>
+    </row>
+    <row r="17" spans="20:21" x14ac:dyDescent="0.4">
+      <c r="T17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T17" s="12"/>
-    </row>
-    <row r="18" spans="19:20" x14ac:dyDescent="0.4">
-      <c r="S18" s="2" t="s">
+      <c r="U17" s="11"/>
+    </row>
+    <row r="18" spans="20:21" x14ac:dyDescent="0.4">
+      <c r="T18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T18" s="12"/>
+      <c r="U18" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="N1:T1"/>
-    <mergeCell ref="N2:T2"/>
-    <mergeCell ref="N3:T3"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
+  <mergeCells count="16">
+    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="O2:U2"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Proof.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/Proof.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuji\Source\Repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAOATO\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0195E798-618D-46B6-B588-2E0D6ADE1197}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A4AD6CC6-DB1C-DA47-BA95-356941279709}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -339,24 +338,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="166" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -553,10 +552,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -571,6 +570,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -580,7 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -616,18 +624,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -938,195 +937,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F68B343-DF0B-8041-9ECA-B405149122A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="13" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="26.21875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="13" width="11.44140625" customWidth="1"/>
-    <col min="14" max="14" width="15.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="15.44140625" customWidth="1"/>
-    <col min="17" max="17" width="11.44140625" customWidth="1"/>
-    <col min="18" max="18" width="15.109375" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" customWidth="1"/>
-    <col min="20" max="20" width="11.44140625" customWidth="1"/>
-    <col min="21" max="21" width="14.77734375" customWidth="1"/>
-    <col min="22" max="23" width="11.44140625" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" customWidth="1"/>
-    <col min="26" max="26" width="23.21875" customWidth="1"/>
+    <col min="4" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="26.25" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
+    <col min="10" max="10" width="14.375" customWidth="1"/>
+    <col min="11" max="13" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="15.375" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="16" max="16" width="15.5" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
+    <col min="18" max="18" width="15.125" customWidth="1"/>
+    <col min="19" max="19" width="15.375" customWidth="1"/>
+    <col min="20" max="20" width="11.5" customWidth="1"/>
+    <col min="21" max="21" width="14.75" customWidth="1"/>
+    <col min="22" max="23" width="11.5" customWidth="1"/>
+    <col min="24" max="24" width="11.375" customWidth="1"/>
+    <col min="26" max="26" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
       <c r="I1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
       <c r="N1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="33"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="O1" s="16"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="18"/>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="21"/>
       <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
       <c r="N2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="31"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="33"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="O2" s="16"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="18"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
       <c r="I3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
       <c r="N3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="31"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="33"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="O3" s="16"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="18"/>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="7"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="30"/>
       <c r="I4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="8"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="33"/>
       <c r="I5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
       <c r="I6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
       <c r="I7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-    </row>
-    <row r="10" spans="1:21" s="15" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+    </row>
+    <row r="10" spans="1:21" s="15" customFormat="1" ht="39" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21">
       <c r="A11" s="3"/>
       <c r="B11" s="12"/>
       <c r="C11" s="9"/>
@@ -1214,97 +1213,51 @@
       <c r="T11" s="10"/>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="9"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="9"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21">
+      <c r="T13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U13" s="11"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="T14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="11"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="T15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U15" s="11"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21">
       <c r="T16" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="U16" s="11"/>
-    </row>
-    <row r="17" spans="20:21" x14ac:dyDescent="0.4">
-      <c r="T17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U17" s="11"/>
-    </row>
-    <row r="18" spans="20:21" x14ac:dyDescent="0.4">
-      <c r="T18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="O1:U1"/>
-    <mergeCell ref="O2:U2"/>
-    <mergeCell ref="O3:U3"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="O1:U1"/>
+    <mergeCell ref="O2:U2"/>
+    <mergeCell ref="O3:U3"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>